--- a/FPR-1/TCSPC/Data/SPC_Daten.xlsx
+++ b/FPR-1/TCSPC/Data/SPC_Daten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L600963\Desktop\FPR01_Einzelphotonenzählung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benjf\Documents\Programmierung\Projekte\Internships\FPR-1\TCSPC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E65308-DB0F-41BD-90B9-12D35485A5CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645CCA65-7BD0-4B1A-B615-336360E00A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10240" activeTab="6" xr2:uid="{0F2D70DA-E771-4DFA-9416-151FB234C0F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{0F2D70DA-E771-4DFA-9416-151FB234C0F5}"/>
   </bookViews>
   <sheets>
     <sheet name="1 SNR CFD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>1. Signal Rausch Verhältnis</t>
   </si>
@@ -144,12 +144,6 @@
     <t>optische Dichte</t>
   </si>
   <si>
-    <t>erster versuch</t>
-  </si>
-  <si>
-    <t>zweiter Versuch</t>
-  </si>
-  <si>
     <t>5 Pheophorbit in Ethanol-Wasser-Gemischen</t>
   </si>
   <si>
@@ -171,16 +165,13 @@
     <t>1:4:0</t>
   </si>
   <si>
-    <t>6 Vergleich zu Einbettung in Mizellebn</t>
-  </si>
-  <si>
     <t>ohne Triton X100</t>
   </si>
   <si>
     <t>mit Triton X100</t>
   </si>
   <si>
-    <t>hier waren die Residuen besser</t>
+    <t>Index</t>
   </si>
 </sst>
 </file>
@@ -288,9 +279,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -328,7 +319,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -434,7 +425,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -576,7 +567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -587,25 +578,25 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -640,7 +631,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -675,7 +666,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -710,7 +701,7 @@
         <v>0.2089</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -745,7 +736,7 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -780,7 +771,7 @@
         <v>825.7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -828,17 +819,17 @@
       <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>13</v>
       </c>
@@ -846,7 +837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -872,7 +863,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -898,7 +889,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -924,7 +915,7 @@
         <v>2.6564000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -963,19 +954,19 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1027,7 +1018,7 @@
         <v>1161167</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1041,7 +1032,7 @@
         <v>50966</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1055,7 +1046,7 @@
         <v>19.398</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1069,13 +1060,13 @@
         <v>2627.3917999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1107,7 +1098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1136,7 +1127,7 @@
         <v>1007810</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1156,7 +1147,7 @@
         <v>47423</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1176,7 +1167,7 @@
         <v>17.9148</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1203,21 +1194,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF848EA-575F-4881-869A-839C522A548A}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1249,7 +1240,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1281,7 +1272,7 @@
         <v>264114</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1313,7 +1304,7 @@
         <v>2.972</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1345,7 +1336,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1375,11 +1366,6 @@
       </c>
       <c r="J7">
         <v>2.6425000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I9" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1389,23 +1375,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F4CDD6-3B60-4F2C-8AFA-B116FDECF578}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1413,8 +1399,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1434,7 +1420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1453,11 +1439,8 @@
       <c r="F6">
         <v>0.12</v>
       </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1477,7 +1460,7 @@
         <v>1.4610000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1497,7 +1480,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1505,7 +1488,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1524,11 +1507,8 @@
       <c r="F10">
         <v>1.304</v>
       </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1562,37 +1542,37 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1612,7 +1592,7 @@
         <v>3.2010000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1639,56 +1619,56 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0078D2-45AF-4A45-89AA-C7ED0BC92FC1}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>3.2010000000000001</v>
+      </c>
+      <c r="C2">
+        <v>14.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="C3">
+        <v>3.3037999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>3.2010000000000001</v>
-      </c>
-      <c r="D4">
-        <v>14.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="D5">
-        <v>3.3037999999999998</v>
+        <v>38</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
